--- a/Documentation/Documents/SQL Generator/Data Initial/Master.TblPersonDegreeType.xlsx
+++ b/Documentation/Documents/SQL Generator/Data Initial/Master.TblPersonDegreeType.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="5100"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="5685"/>
   </bookViews>
   <sheets>
     <sheet name="MAIN" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
   <si>
     <t>SYS_PID Prediction</t>
   </si>
@@ -30,9 +30,6 @@
   </si>
   <si>
     <t>Gelar Akademik</t>
-  </si>
-  <si>
-    <t>Gelar Kebangsawanan</t>
   </si>
   <si>
     <t>Gelar Profesi</t>
@@ -708,7 +705,7 @@
   <dimension ref="B1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -740,7 +737,7 @@
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D4" s="15">
         <f xml:space="preserve"> D3 + IF(EXACT(E4, ""), 0, 1)</f>
@@ -748,7 +745,7 @@
       </c>
       <c r="E4" s="12" t="str">
         <f>IF(EXACT(B4, ""), "", CONCATENATE("PERFORM ""SchData-OLTP-Master"".""Func_TblPersonDegreeType_SET""(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, '", B4, "'::varchar);"))</f>
-        <v>PERFORM "SchData-OLTP-Master"."Func_TblPersonDegreeType_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Gelar Kebangsawanan'::varchar);</v>
+        <v>PERFORM "SchData-OLTP-Master"."Func_TblPersonDegreeType_SET"(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, 'Gelar Kehormatan'::varchar);</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
@@ -766,7 +763,7 @@
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D6" s="15">
         <f xml:space="preserve"> D5 + IF(EXACT(E6, ""), 0, 1)</f>
@@ -779,7 +776,7 @@
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D7" s="15">
         <f xml:space="preserve"> D6 + IF(EXACT(E7, ""), 0, 1)</f>
@@ -794,7 +791,7 @@
       <c r="B8" s="4"/>
       <c r="D8" s="13"/>
       <c r="E8" s="14" t="str">
-        <f t="shared" ref="E5:E8" si="1">IF(EXACT(B8, ""), "", CONCATENATE("PERFORM ""SchData-OLTP-Master"".""Func_TblEducationalInstitutionType_SET""(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, '", B8, "'::varchar);"))</f>
+        <f t="shared" ref="E8" si="1">IF(EXACT(B8, ""), "", CONCATENATE("PERFORM ""SchData-OLTP-Master"".""Func_TblEducationalInstitutionType_SET""(varSystemLoginSession, null::bigint, null::varchar, null::timestamptz, null::timestamptz, null::varchar, varInstitutionBranchID, varBaseCurrencyID, '", B8, "'::varchar);"))</f>
         <v/>
       </c>
     </row>
@@ -861,7 +858,7 @@
       </c>
       <c r="C4" s="19" t="str">
         <f>IF(EXACT(MAIN!B4, ""), "", MAIN!B4)</f>
-        <v>Gelar Kebangsawanan</v>
+        <v>Gelar Kehormatan</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
